--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tnfrsf21</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H2">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I2">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J2">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.465689</v>
+        <v>4.631270333333333</v>
       </c>
       <c r="N2">
-        <v>34.397067</v>
+        <v>13.893811</v>
       </c>
       <c r="O2">
-        <v>0.1125836808441207</v>
+        <v>0.05846361049715151</v>
       </c>
       <c r="P2">
-        <v>0.1279391038575984</v>
+        <v>0.0596002562356855</v>
       </c>
       <c r="Q2">
-        <v>61.34070998969667</v>
+        <v>25.143171270937</v>
       </c>
       <c r="R2">
-        <v>552.06638990727</v>
+        <v>226.288541438433</v>
       </c>
       <c r="S2">
-        <v>0.004670247333125517</v>
+        <v>0.002473429471780504</v>
       </c>
       <c r="T2">
-        <v>0.005307227958026211</v>
+        <v>0.002526717167137711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H3">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I3">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J3">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.199120000000001</v>
       </c>
       <c r="O3">
-        <v>0.01374397374945266</v>
+        <v>0.01766942965546306</v>
       </c>
       <c r="P3">
-        <v>0.01561853078317749</v>
+        <v>0.01801295756537869</v>
       </c>
       <c r="Q3">
-        <v>7.48834201857778</v>
+        <v>7.599008893040001</v>
       </c>
       <c r="R3">
-        <v>67.39507816720001</v>
+        <v>68.39108003736</v>
       </c>
       <c r="S3">
-        <v>0.0005701337553423966</v>
+        <v>0.0007475434323630109</v>
       </c>
       <c r="T3">
-        <v>0.0006478949807873743</v>
+        <v>0.0007636485476066507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H4">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I4">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J4">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.364677</v>
+        <v>33.32967466666667</v>
       </c>
       <c r="N4">
-        <v>79.094031</v>
+        <v>99.989024</v>
       </c>
       <c r="O4">
-        <v>0.2588795475724425</v>
+        <v>0.4207426855832669</v>
       </c>
       <c r="P4">
-        <v>0.2941884389917637</v>
+        <v>0.428922737696382</v>
       </c>
       <c r="Q4">
-        <v>141.0493521871234</v>
+        <v>180.946837095008</v>
       </c>
       <c r="R4">
-        <v>1269.44416968411</v>
+        <v>1628.521533855072</v>
       </c>
       <c r="S4">
-        <v>0.01073895885785544</v>
+        <v>0.01780042918506436</v>
       </c>
       <c r="T4">
-        <v>0.01220365831296581</v>
+        <v>0.01818392257287397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H5">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I5">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J5">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.6694545</v>
+        <v>4.5322385</v>
       </c>
       <c r="N5">
-        <v>73.338909</v>
+        <v>9.064477</v>
       </c>
       <c r="O5">
-        <v>0.3600640277401564</v>
+        <v>0.05721346569581108</v>
       </c>
       <c r="P5">
-        <v>0.2727823943638554</v>
+        <v>0.03888387079991788</v>
       </c>
       <c r="Q5">
-        <v>196.179259176215</v>
+        <v>24.6055273487385</v>
       </c>
       <c r="R5">
-        <v>1177.07555505729</v>
+        <v>147.633164092431</v>
       </c>
       <c r="S5">
-        <v>0.01493633937618511</v>
+        <v>0.002420539392475887</v>
       </c>
       <c r="T5">
-        <v>0.01131568305681237</v>
+        <v>0.001648458414111502</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H6">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I6">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J6">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.94195566666667</v>
+        <v>35.3234</v>
       </c>
       <c r="N6">
-        <v>77.825867</v>
+        <v>105.9702</v>
       </c>
       <c r="O6">
-        <v>0.2547287700938277</v>
+        <v>0.4459108085683075</v>
       </c>
       <c r="P6">
-        <v>0.2894715320036049</v>
+        <v>0.454580177702636</v>
       </c>
       <c r="Q6">
-        <v>138.7878198261411</v>
+        <v>191.7707739234</v>
       </c>
       <c r="R6">
-        <v>1249.09037843527</v>
+        <v>1725.9369653106</v>
       </c>
       <c r="S6">
-        <v>0.01056677442309053</v>
+        <v>0.01886522105493406</v>
       </c>
       <c r="T6">
-        <v>0.01200798943700722</v>
+        <v>0.0192716543751039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>4.08351</v>
       </c>
       <c r="I7">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J7">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.465689</v>
+        <v>4.631270333333333</v>
       </c>
       <c r="N7">
-        <v>34.397067</v>
+        <v>13.893811</v>
       </c>
       <c r="O7">
-        <v>0.1125836808441207</v>
+        <v>0.05846361049715151</v>
       </c>
       <c r="P7">
-        <v>0.1279391038575984</v>
+        <v>0.0596002562356855</v>
       </c>
       <c r="Q7">
-        <v>15.60675189613</v>
+        <v>6.303946239623334</v>
       </c>
       <c r="R7">
-        <v>140.46076706517</v>
+        <v>56.73551615661</v>
       </c>
       <c r="S7">
-        <v>0.001188238470567027</v>
+        <v>0.0006201431891619602</v>
       </c>
       <c r="T7">
-        <v>0.001350303738105287</v>
+        <v>0.0006335035868280074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>4.08351</v>
       </c>
       <c r="I8">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J8">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.199120000000001</v>
       </c>
       <c r="O8">
-        <v>0.01374397374945266</v>
+        <v>0.01766942965546306</v>
       </c>
       <c r="P8">
-        <v>0.01561853078317749</v>
+        <v>0.01801295756537869</v>
       </c>
       <c r="Q8">
         <v>1.905238723466667</v>
@@ -948,10 +948,10 @@
         <v>17.1471485112</v>
       </c>
       <c r="S8">
-        <v>0.0001450575982692774</v>
+        <v>0.0001874255860018371</v>
       </c>
       <c r="T8">
-        <v>0.0001648421777575592</v>
+        <v>0.0001914634927394091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>4.08351</v>
       </c>
       <c r="I9">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J9">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.364677</v>
+        <v>33.32967466666667</v>
       </c>
       <c r="N9">
-        <v>79.094031</v>
+        <v>99.989024</v>
       </c>
       <c r="O9">
-        <v>0.2588795475724425</v>
+        <v>0.4207426855832669</v>
       </c>
       <c r="P9">
-        <v>0.2941884389917637</v>
+        <v>0.428922737696382</v>
       </c>
       <c r="Q9">
-        <v>35.88680739209001</v>
+        <v>45.36735326602668</v>
       </c>
       <c r="R9">
-        <v>322.98126652881</v>
+        <v>408.30617939424</v>
       </c>
       <c r="S9">
-        <v>0.002732284424902305</v>
+        <v>0.004462959243115642</v>
       </c>
       <c r="T9">
-        <v>0.003104943968656265</v>
+        <v>0.004559109473090696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>4.08351</v>
       </c>
       <c r="I10">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J10">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.6694545</v>
+        <v>4.5322385</v>
       </c>
       <c r="N10">
-        <v>73.338909</v>
+        <v>9.064477</v>
       </c>
       <c r="O10">
-        <v>0.3600640277401564</v>
+        <v>0.05721346569581108</v>
       </c>
       <c r="P10">
-        <v>0.2727823943638554</v>
+        <v>0.03888387079991788</v>
       </c>
       <c r="Q10">
-        <v>49.91336138176501</v>
+        <v>6.169147079045001</v>
       </c>
       <c r="R10">
-        <v>299.48016829059</v>
+        <v>37.01488247427</v>
       </c>
       <c r="S10">
-        <v>0.003800212663330324</v>
+        <v>0.000606882482588676</v>
       </c>
       <c r="T10">
-        <v>0.002879018812018579</v>
+        <v>0.0004133047939273088</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>4.08351</v>
       </c>
       <c r="I11">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J11">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.94195566666667</v>
+        <v>35.3234</v>
       </c>
       <c r="N11">
-        <v>77.825867</v>
+        <v>105.9702</v>
       </c>
       <c r="O11">
-        <v>0.2547287700938277</v>
+        <v>0.4459108085683075</v>
       </c>
       <c r="P11">
-        <v>0.2894715320036049</v>
+        <v>0.454580177702636</v>
       </c>
       <c r="Q11">
-        <v>35.31141179479668</v>
+        <v>48.08115237800001</v>
       </c>
       <c r="R11">
-        <v>317.80270615317</v>
+        <v>432.7303714020001</v>
       </c>
       <c r="S11">
-        <v>0.002688476002172886</v>
+        <v>0.004729925992525071</v>
       </c>
       <c r="T11">
-        <v>0.003055160462704128</v>
+        <v>0.004831827768269002</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H12">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I12">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J12">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.465689</v>
+        <v>4.631270333333333</v>
       </c>
       <c r="N12">
-        <v>34.397067</v>
+        <v>13.893811</v>
       </c>
       <c r="O12">
-        <v>0.1125836808441207</v>
+        <v>0.05846361049715151</v>
       </c>
       <c r="P12">
-        <v>0.1279391038575984</v>
+        <v>0.0596002562356855</v>
       </c>
       <c r="Q12">
-        <v>515.8302569668407</v>
+        <v>294.7341073073612</v>
       </c>
       <c r="R12">
-        <v>4642.472312701567</v>
+        <v>2652.606965766251</v>
       </c>
       <c r="S12">
-        <v>0.03927334526042305</v>
+        <v>0.02899411611595714</v>
       </c>
       <c r="T12">
-        <v>0.04462988383783133</v>
+        <v>0.02961876688702861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H13">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I13">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J13">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.199120000000001</v>
       </c>
       <c r="O13">
-        <v>0.01374397374945266</v>
+        <v>0.01766942965546306</v>
       </c>
       <c r="P13">
-        <v>0.01561853078317749</v>
+        <v>0.01801295756537869</v>
       </c>
       <c r="Q13">
-        <v>62.97144895041779</v>
+        <v>89.07735139599113</v>
       </c>
       <c r="R13">
-        <v>566.7430405537601</v>
+        <v>801.6961625639201</v>
       </c>
       <c r="S13">
-        <v>0.004794405568066244</v>
+        <v>0.008762878152354167</v>
       </c>
       <c r="T13">
-        <v>0.005448320283270498</v>
+        <v>0.008951666062728191</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H14">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I14">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J14">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.364677</v>
+        <v>33.32967466666667</v>
       </c>
       <c r="N14">
-        <v>79.094031</v>
+        <v>99.989024</v>
       </c>
       <c r="O14">
-        <v>0.2588795475724425</v>
+        <v>0.4207426855832669</v>
       </c>
       <c r="P14">
-        <v>0.2941884389917637</v>
+        <v>0.428922737696382</v>
       </c>
       <c r="Q14">
-        <v>1186.121314799115</v>
+        <v>2121.100951292221</v>
       </c>
       <c r="R14">
-        <v>10675.09183319204</v>
+        <v>19089.90856162999</v>
       </c>
       <c r="S14">
-        <v>0.09030674584846446</v>
+        <v>0.2086607750873555</v>
       </c>
       <c r="T14">
-        <v>0.1026237910283406</v>
+        <v>0.2131561738616935</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H15">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I15">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J15">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.6694545</v>
+        <v>4.5322385</v>
       </c>
       <c r="N15">
-        <v>73.338909</v>
+        <v>9.064477</v>
       </c>
       <c r="O15">
-        <v>0.3600640277401564</v>
+        <v>0.05721346569581108</v>
       </c>
       <c r="P15">
-        <v>0.2727823943638554</v>
+        <v>0.03888387079991788</v>
       </c>
       <c r="Q15">
-        <v>1649.723286369347</v>
+        <v>288.4317200805929</v>
       </c>
       <c r="R15">
-        <v>9898.339718216084</v>
+        <v>1730.590320483557</v>
       </c>
       <c r="S15">
-        <v>0.1256036289742268</v>
+        <v>0.0283741262928245</v>
       </c>
       <c r="T15">
-        <v>0.09515657220027748</v>
+        <v>0.01932361331357052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H16">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I16">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J16">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.94195566666667</v>
+        <v>35.3234</v>
       </c>
       <c r="N16">
-        <v>77.825867</v>
+        <v>105.9702</v>
       </c>
       <c r="O16">
-        <v>0.2547287700938277</v>
+        <v>0.4459108085683075</v>
       </c>
       <c r="P16">
-        <v>0.2894715320036049</v>
+        <v>0.454580177702636</v>
       </c>
       <c r="Q16">
-        <v>1167.103490924885</v>
+        <v>2247.981658753133</v>
       </c>
       <c r="R16">
-        <v>10503.93141832397</v>
+        <v>20231.8349287782</v>
       </c>
       <c r="S16">
-        <v>0.08885880138800104</v>
+        <v>0.2211425132838788</v>
       </c>
       <c r="T16">
-        <v>0.1009783596894616</v>
+        <v>0.2259068192860691</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H17">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I17">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J17">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.465689</v>
+        <v>4.631270333333333</v>
       </c>
       <c r="N17">
-        <v>34.397067</v>
+        <v>13.893811</v>
       </c>
       <c r="O17">
-        <v>0.1125836808441207</v>
+        <v>0.05846361049715151</v>
       </c>
       <c r="P17">
-        <v>0.1279391038575984</v>
+        <v>0.0596002562356855</v>
       </c>
       <c r="Q17">
-        <v>885.9368809606212</v>
+        <v>3.668827520282</v>
       </c>
       <c r="R17">
-        <v>7973.431928645592</v>
+        <v>22.012965121692</v>
       </c>
       <c r="S17">
-        <v>0.06745184978000514</v>
+        <v>0.0003609165294926103</v>
       </c>
       <c r="T17">
-        <v>0.07665168832363559</v>
+        <v>0.0002457947561950046</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H18">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I18">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J18">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.199120000000001</v>
       </c>
       <c r="O18">
-        <v>0.01374397374945266</v>
+        <v>0.01766942965546306</v>
       </c>
       <c r="P18">
-        <v>0.01561853078317749</v>
+        <v>0.01801295756537869</v>
       </c>
       <c r="Q18">
-        <v>108.1532700325689</v>
+        <v>1.10882802544</v>
       </c>
       <c r="R18">
-        <v>973.3794302931202</v>
+        <v>6.652968152640001</v>
       </c>
       <c r="S18">
-        <v>0.008234376827774741</v>
+        <v>0.0001090796338976405</v>
       </c>
       <c r="T18">
-        <v>0.009357473341362062</v>
+        <v>7.428643419962803E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H19">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I19">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J19">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>26.364677</v>
+        <v>33.32967466666667</v>
       </c>
       <c r="N19">
-        <v>79.094031</v>
+        <v>99.989024</v>
       </c>
       <c r="O19">
-        <v>0.2588795475724425</v>
+        <v>0.4207426855832669</v>
       </c>
       <c r="P19">
-        <v>0.2941884389917637</v>
+        <v>0.428922737696382</v>
       </c>
       <c r="Q19">
-        <v>2037.159712679651</v>
+        <v>26.403301655488</v>
       </c>
       <c r="R19">
-        <v>18334.43741411686</v>
+        <v>158.419809932928</v>
       </c>
       <c r="S19">
-        <v>0.1551015584412203</v>
+        <v>0.002597393294714699</v>
       </c>
       <c r="T19">
-        <v>0.176256045681801</v>
+        <v>0.001768901115486346</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H20">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I20">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J20">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.6694545</v>
+        <v>4.5322385</v>
       </c>
       <c r="N20">
-        <v>73.338909</v>
+        <v>9.064477</v>
       </c>
       <c r="O20">
-        <v>0.3600640277401564</v>
+        <v>0.05721346569581108</v>
       </c>
       <c r="P20">
-        <v>0.2727823943638554</v>
+        <v>0.03888387079991788</v>
       </c>
       <c r="Q20">
-        <v>2833.394673992764</v>
+        <v>3.590375888361</v>
       </c>
       <c r="R20">
-        <v>17000.36804395658</v>
+        <v>14.361503553444</v>
       </c>
       <c r="S20">
-        <v>0.2157238467264142</v>
+        <v>0.0003531989438145072</v>
       </c>
       <c r="T20">
-        <v>0.163431120294747</v>
+        <v>0.0001603592357957243</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.7921859999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.584372</v>
+      </c>
+      <c r="I21">
+        <v>0.006173353414603005</v>
+      </c>
+      <c r="J21">
+        <v>0.004124055360148531</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>35.3234</v>
+      </c>
+      <c r="N21">
+        <v>105.9702</v>
+      </c>
+      <c r="O21">
+        <v>0.4459108085683075</v>
+      </c>
+      <c r="P21">
+        <v>0.454580177702636</v>
+      </c>
+      <c r="Q21">
+        <v>27.9827029524</v>
+      </c>
+      <c r="R21">
+        <v>167.8962177144</v>
+      </c>
+      <c r="S21">
+        <v>0.002752765012683548</v>
+      </c>
+      <c r="T21">
+        <v>0.001874713818471828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>57.101078</v>
+      </c>
+      <c r="H22">
+        <v>171.303234</v>
+      </c>
+      <c r="I22">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J22">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.631270333333333</v>
+      </c>
+      <c r="N22">
+        <v>13.893811</v>
+      </c>
+      <c r="O22">
+        <v>0.05846361049715151</v>
+      </c>
+      <c r="P22">
+        <v>0.0596002562356855</v>
+      </c>
+      <c r="Q22">
+        <v>264.4505285427526</v>
+      </c>
+      <c r="R22">
+        <v>2380.054756884774</v>
+      </c>
+      <c r="S22">
+        <v>0.0260150051907593</v>
+      </c>
+      <c r="T22">
+        <v>0.02657547383849616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>57.101078</v>
+      </c>
+      <c r="H23">
+        <v>171.303234</v>
+      </c>
+      <c r="I23">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J23">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.399706666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.199120000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.01766942965546306</v>
+      </c>
+      <c r="P23">
+        <v>0.01801295756537869</v>
+      </c>
+      <c r="Q23">
+        <v>79.92475955045335</v>
+      </c>
+      <c r="R23">
+        <v>719.3228359540801</v>
+      </c>
+      <c r="S23">
+        <v>0.007862502850846409</v>
+      </c>
+      <c r="T23">
+        <v>0.008031893028104817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>57.101078</v>
+      </c>
+      <c r="H24">
+        <v>171.303234</v>
+      </c>
+      <c r="I24">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J24">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>33.32967466666667</v>
+      </c>
+      <c r="N24">
+        <v>99.989024</v>
+      </c>
+      <c r="O24">
+        <v>0.4207426855832669</v>
+      </c>
+      <c r="P24">
+        <v>0.428922737696382</v>
+      </c>
+      <c r="Q24">
+        <v>1903.160352855958</v>
+      </c>
+      <c r="R24">
+        <v>17128.44317570362</v>
+      </c>
+      <c r="S24">
+        <v>0.1872211287730167</v>
+      </c>
+      <c r="T24">
+        <v>0.1912546306732375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>77.26852533333333</v>
-      </c>
-      <c r="H21">
-        <v>231.805576</v>
-      </c>
-      <c r="I21">
-        <v>0.5991263500559777</v>
-      </c>
-      <c r="J21">
-        <v>0.5991263500559777</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>25.94195566666667</v>
-      </c>
-      <c r="N21">
-        <v>77.825867</v>
-      </c>
-      <c r="O21">
-        <v>0.2547287700938277</v>
-      </c>
-      <c r="P21">
-        <v>0.2894715320036049</v>
-      </c>
-      <c r="Q21">
-        <v>2004.496658626044</v>
-      </c>
-      <c r="R21">
-        <v>18040.46992763439</v>
-      </c>
-      <c r="S21">
-        <v>0.1526147182805632</v>
-      </c>
-      <c r="T21">
-        <v>0.1734300224144319</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>57.101078</v>
+      </c>
+      <c r="H25">
+        <v>171.303234</v>
+      </c>
+      <c r="I25">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J25">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.5322385</v>
+      </c>
+      <c r="N25">
+        <v>9.064477</v>
+      </c>
+      <c r="O25">
+        <v>0.05721346569581108</v>
+      </c>
+      <c r="P25">
+        <v>0.03888387079991788</v>
+      </c>
+      <c r="Q25">
+        <v>258.795704103103</v>
+      </c>
+      <c r="R25">
+        <v>1552.774224618618</v>
+      </c>
+      <c r="S25">
+        <v>0.02545871858410751</v>
+      </c>
+      <c r="T25">
+        <v>0.01733813504251282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>57.101078</v>
+      </c>
+      <c r="H26">
+        <v>171.303234</v>
+      </c>
+      <c r="I26">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J26">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>35.3234</v>
+      </c>
+      <c r="N26">
+        <v>105.9702</v>
+      </c>
+      <c r="O26">
+        <v>0.4459108085683075</v>
+      </c>
+      <c r="P26">
+        <v>0.454580177702636</v>
+      </c>
+      <c r="Q26">
+        <v>2017.0042186252</v>
+      </c>
+      <c r="R26">
+        <v>18153.0379676268</v>
+      </c>
+      <c r="S26">
+        <v>0.198420383224286</v>
+      </c>
+      <c r="T26">
+        <v>0.2026951624547222</v>
       </c>
     </row>
   </sheetData>
